--- a/dengue data converted /2013_dengue_extracted.xlsx
+++ b/dengue data converted /2013_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/Bioinfo/Klimaprojekt/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemitigrato/Desktop/topic04_team01/dengue data converted /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_9D9F755D16F1BB3D0BF7D20554070900FD5F54F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA57B3EA-A3BF-4887-A51E-5A08C1781A8D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07259DD2-34DB-C348-95F3-FCA68A32293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="-2080" windowWidth="27320" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1156,9 +1156,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1196,9 +1196,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1231,26 +1231,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1283,26 +1266,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1478,27 +1444,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.59765625" customWidth="1"/>
+    <col min="2" max="3" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" customWidth="1"/>
+    <col min="11" max="12" width="10.3984375" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>77</v>
       </c>
@@ -1540,7 +1506,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -1582,7 +1548,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +1590,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1632,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
@@ -1708,7 +1674,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -1750,7 +1716,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1758,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1800,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>55</v>
       </c>
@@ -1876,7 +1842,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1918,7 +1884,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
@@ -1960,7 +1926,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>62</v>
       </c>
@@ -2002,7 +1968,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2010,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -2086,7 +2052,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2128,7 +2094,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>70</v>
       </c>
@@ -2170,7 +2136,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2178,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
@@ -2254,7 +2220,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
@@ -2296,7 +2262,7 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
@@ -2338,7 +2304,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>60</v>
       </c>
@@ -2380,7 +2346,7 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
@@ -2422,7 +2388,7 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
@@ -2464,7 +2430,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -2506,7 +2472,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>48</v>
       </c>
@@ -2548,7 +2514,7 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>43</v>
       </c>
@@ -2590,7 +2556,7 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
@@ -2632,7 +2598,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2640,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>44</v>
       </c>
@@ -2716,7 +2682,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>56</v>
       </c>
@@ -2758,7 +2724,7 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>71</v>
       </c>
@@ -2800,7 +2766,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +2808,7 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>63</v>
       </c>
@@ -2884,7 +2850,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
@@ -2926,7 +2892,7 @@
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
@@ -2968,7 +2934,7 @@
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
@@ -3010,7 +2976,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>1</v>
       </c>
@@ -3052,7 +3018,7 @@
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -3094,7 +3060,7 @@
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>76</v>
       </c>
@@ -3136,7 +3102,7 @@
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>34</v>
       </c>
@@ -3178,7 +3144,7 @@
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>29</v>
       </c>
@@ -3220,7 +3186,7 @@
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
         <v>27</v>
       </c>
@@ -3262,7 +3228,7 @@
       </c>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>64</v>
       </c>
@@ -3304,7 +3270,7 @@
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>65</v>
       </c>
@@ -3346,7 +3312,7 @@
       </c>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
         <v>17</v>
       </c>
@@ -3388,7 +3354,7 @@
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>72</v>
       </c>
@@ -3430,7 +3396,7 @@
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -3472,7 +3438,7 @@
       </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
@@ -3514,7 +3480,7 @@
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>30</v>
       </c>
@@ -3556,7 +3522,7 @@
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
         <v>10</v>
       </c>
@@ -3598,7 +3564,7 @@
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
         <v>18</v>
       </c>
@@ -3640,7 +3606,7 @@
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>31</v>
       </c>
@@ -3682,7 +3648,7 @@
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>15</v>
       </c>
@@ -3724,7 +3690,7 @@
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
@@ -3766,7 +3732,7 @@
       </c>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -3808,7 +3774,7 @@
       </c>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
         <v>11</v>
       </c>
@@ -3850,7 +3816,7 @@
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
@@ -3892,7 +3858,7 @@
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="15" t="s">
         <v>12</v>
       </c>
@@ -3934,7 +3900,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="15" t="s">
         <v>19</v>
       </c>
@@ -3976,7 +3942,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="15" t="s">
         <v>20</v>
       </c>
@@ -4018,7 +3984,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
@@ -4060,7 +4026,7 @@
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="15" t="s">
         <v>35</v>
       </c>
@@ -4102,7 +4068,7 @@
       </c>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>51</v>
       </c>
@@ -4144,7 +4110,7 @@
       </c>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="15" t="s">
         <v>7</v>
       </c>
@@ -4186,7 +4152,7 @@
       </c>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="15" t="s">
         <v>36</v>
       </c>
@@ -4228,7 +4194,7 @@
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -4270,7 +4236,7 @@
       </c>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="15" t="s">
         <v>16</v>
       </c>
@@ -4312,7 +4278,7 @@
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="15" t="s">
         <v>28</v>
       </c>
@@ -4354,7 +4320,7 @@
       </c>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>57</v>
       </c>
@@ -4396,7 +4362,7 @@
       </c>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -4438,7 +4404,7 @@
       </c>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15" t="s">
         <v>32</v>
       </c>
@@ -4480,7 +4446,7 @@
       </c>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="s">
         <v>24</v>
       </c>
@@ -4522,7 +4488,7 @@
       </c>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
@@ -4564,7 +4530,7 @@
       </c>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>42</v>
       </c>
@@ -4606,7 +4572,7 @@
       </c>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -4648,7 +4614,7 @@
       </c>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>69</v>
       </c>
@@ -4690,7 +4656,7 @@
       </c>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="15" t="s">
         <v>37</v>
       </c>
@@ -4732,7 +4698,7 @@
       </c>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>53</v>
       </c>
